--- a/00.기획서/221017_(1차 프로토)선물시스템기획서_V111.xlsx
+++ b/00.기획서/221017_(1차 프로토)선물시스템기획서_V111.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1530" windowWidth="21600" windowHeight="11385" activeTab="2"/>
+    <workbookView xWindow="1980" yWindow="1530" windowWidth="21600" windowHeight="11385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="플로우" sheetId="2" r:id="rId2"/>
     <sheet name="시스템" sheetId="4" r:id="rId3"/>
+    <sheet name="gift" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,8 +26,2279 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>KGA_23</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물리스트에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> index</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기재한다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한글명으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기재한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타입을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미니맵</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>느낌표</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미니맵</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상호명</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구매</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소모하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>게임</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>재화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수량을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단위는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>코인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">KGA_23:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표시되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>좌표</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> X</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소수점</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 6</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자리까지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표시되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>좌표</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Y</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소수점</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 6</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자리까지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>건물의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상호명을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한글로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내용은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>건물</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안내</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> UI</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력된다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>건물의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주소를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한글로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내용은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>건물</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안내</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> UI</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력된다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따른</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하나의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>취향을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기재한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>. 
+1: Like
+2: Hate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>칼럼은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "giftType"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제어를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">받는다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">giftType=1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>호감도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상승</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수치를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기재한다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">giftType=2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>호감도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하락</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수치를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기재한다
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에셋</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주소명을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기재한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>선물 시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +2537,118 @@
   </si>
   <si>
     <t>한 장소에서 1개의 선물만 획득 가능하며 일정 시간이 지나면 다시 선물이 등장. 획득 가능해짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_location_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_location_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">커피가루 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케챱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노브랜드 버거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftType_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선물 리스트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 강동구 천호대로 997 신라빌딩 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천호동 432-10번지 106동 110호 쌍용플래티넘리버 강동구 서울특별시 KR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">에셋 파일 주소 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/props/food/food-pack-free-demo-225294</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/props/lowpoly-fantasy-bags-156997</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +2656,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +2713,44 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -344,7 +2766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -426,13 +2848,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,6 +2933,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -507,9 +2944,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,9 +2957,22 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,15 +2991,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>11350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1169,49 +3616,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L57"/>
+  <dimension ref="C1:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L3"/>
+    <sheetView topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="2.25" customWidth="1"/>
+    <col min="1" max="2" width="4.375" customWidth="1"/>
+    <col min="3" max="3" width="2.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="3:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
@@ -1222,275 +3656,274 @@
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-    </row>
-    <row r="24" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="3"/>
-      <c r="C24" s="8" t="s">
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+    </row>
+    <row r="25" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="3"/>
+      <c r="D25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="21" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D27" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -1499,12 +3932,12 @@
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C28" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="21"/>
+      <c r="M27" s="21"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D28" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -1513,12 +3946,12 @@
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C29" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="21"/>
+      <c r="M28" s="21"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D29" s="21" t="s">
+        <v>4</v>
+      </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -1527,67 +3960,67 @@
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="3"/>
-      <c r="C31" s="8" t="s">
+      <c r="M29" s="21"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D30" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="3"/>
+      <c r="D32" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C33" s="21" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D34" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C34" s="21" t="s">
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D35" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C35" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -1596,112 +4029,112 @@
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C36" s="22" t="s">
+      <c r="M35" s="21"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D36" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D37" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-    </row>
-    <row r="38" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="3"/>
-      <c r="C38" s="8" t="s">
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+    </row>
+    <row r="39" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="3"/>
+      <c r="D39" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C40" s="25" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D41" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C41" s="25" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D42" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C42" s="25" t="s">
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D43" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-    </row>
-    <row r="44" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="3"/>
-      <c r="C44" s="8" t="s">
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+    </row>
+    <row r="45" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="3"/>
+      <c r="D45" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C46" s="21" t="s">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D47" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C47" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
@@ -1710,12 +4143,12 @@
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C48" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="21"/>
+      <c r="M47" s="21"/>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D48" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
@@ -1724,35 +4157,36 @@
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="4"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="4"/>
-      <c r="C53" s="19"/>
+      <c r="M48" s="21"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D49" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C53" s="4"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
@@ -1762,10 +4196,10 @@
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="4"/>
-      <c r="C54" s="19"/>
+      <c r="M53" s="19"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C54" s="4"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
@@ -1775,10 +4209,10 @@
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
       <c r="L54" s="19"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="4"/>
-      <c r="C55" s="19"/>
+      <c r="M54" s="19"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C55" s="4"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
@@ -1788,24 +4222,24 @@
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
       <c r="L55" s="19"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="4"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="4"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
+      <c r="M55" s="19"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C56" s="4"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C57" s="4"/>
+      <c r="D57" s="19"/>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
@@ -1814,25 +4248,39 @@
       <c r="J57" s="20"/>
       <c r="K57" s="20"/>
       <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C58" s="4"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C47:L47"/>
-    <mergeCell ref="C48:L48"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="C41:L41"/>
-    <mergeCell ref="C42:L42"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="C46:L46"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:L22"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="C34:L34"/>
-    <mergeCell ref="C35:L35"/>
-    <mergeCell ref="C36:L36"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="C3:M4"/>
+    <mergeCell ref="C5:M23"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D48:M48"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D43:M43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1845,8 +4293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2471,8 +4919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2483,33 +4931,33 @@
   <sheetData>
     <row r="1" spans="2:29" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2861,15 +5309,15 @@
       <c r="C18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
       <c r="R18" s="6"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -2890,15 +5338,15 @@
       <c r="C19" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.3">
@@ -2975,15 +5423,15 @@
       <c r="C24" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="26" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12"/>
@@ -3136,15 +5584,15 @@
       <c r="C34" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
@@ -3153,15 +5601,15 @@
       <c r="C35" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B36" s="13"/>
@@ -3228,15 +5676,15 @@
     <row r="40" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B40" s="13"/>
       <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" spans="2:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
@@ -3311,18 +5759,31 @@
       <c r="C46" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:L45"/>
+    <mergeCell ref="C46:L46"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="C43:L43"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="C35:L35"/>
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="C22:L22"/>
     <mergeCell ref="C23:L23"/>
@@ -3338,19 +5799,6 @@
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="C10:L10"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C39:L39"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="C34:L34"/>
-    <mergeCell ref="C35:L35"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:L45"/>
-    <mergeCell ref="C46:L46"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="C43:L43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3359,4 +5807,193 @@
     <ignoredError sqref="B23:B24 B38:B39 B28 B31:B35 B43:B46" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="31">
+        <v>1</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="31">
+        <v>1</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0</v>
+      </c>
+      <c r="F5" s="31">
+        <v>37.539341</v>
+      </c>
+      <c r="G5" s="31">
+        <v>127.123299</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="31">
+        <v>2</v>
+      </c>
+      <c r="K5" s="31">
+        <v>10</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="31">
+        <v>2</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="31">
+        <v>1</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31">
+        <v>37.540224000000002</v>
+      </c>
+      <c r="G6" s="31">
+        <v>127.12356200000001</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="31">
+        <v>1</v>
+      </c>
+      <c r="K6" s="31">
+        <v>30</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L5" r:id="rId1"/>
+    <hyperlink ref="L6" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
 </file>
--- a/00.기획서/221017_(1차 프로토)선물시스템기획서_V111.xlsx
+++ b/00.기획서/221017_(1차 프로토)선물시스템기획서_V111.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,6 +30,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>KGA_23</author>
+    <author>KGA_25</author>
   </authors>
   <commentList>
     <comment ref="B4" authorId="0" shapeId="0">
@@ -1750,7 +1751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1760,7 +1761,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>KGA_23:</t>
+          <t>KGA_25:</t>
         </r>
         <r>
           <rPr>
@@ -1780,113 +1781,141 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아이템에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>따른</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>하나의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>취향을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기재한다</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>. 
-1: Like
-2: Hate</t>
+          <t>선물</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생성되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타임
+단위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초</t>
         </r>
       </text>
     </comment>
@@ -1939,223 +1968,363 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>칼럼은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> "giftType"</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>제어를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">받는다
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">giftType=1: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>호감도</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>상승</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수치를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">기재한다
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">giftType=2: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>호감도</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>하락</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수치를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">기재한다
-</t>
+          <t>아이템에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따른</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하나의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>취향을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기재한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>. 
+1: Like
+2: Hate</t>
         </r>
       </text>
     </comment>
     <comment ref="L4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>칼럼은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "giftType"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제어를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">받는다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">giftType=1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>호감도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상승</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수치를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기재한다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">giftType=2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>호감도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하락</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수치를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기재한다
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2298,7 +2467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>선물 시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2649,6 +2818,14 @@
   </si>
   <si>
     <t>https://assetstore.unity.com/packages/3d/props/lowpoly-fantasy-bags-156997</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cool_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2930,10 +3107,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2944,6 +3127,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2957,17 +3143,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3618,7 +3795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:M58"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -3631,279 +3808,279 @@
     <row r="1" spans="3:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
     </row>
     <row r="25" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="3"/>
@@ -3921,60 +4098,60 @@
       <c r="M25" s="2"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
@@ -4004,60 +4181,60 @@
       <c r="M32" s="2"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
     </row>
     <row r="39" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="3"/>
@@ -4075,46 +4252,46 @@
       <c r="M39" s="2"/>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
     </row>
     <row r="45" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C45" s="3"/>
@@ -4132,46 +4309,46 @@
       <c r="M45" s="2"/>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D50" s="6"/>
@@ -4265,6 +4442,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D48:M48"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D43:M43"/>
     <mergeCell ref="D30:M30"/>
     <mergeCell ref="D34:M34"/>
     <mergeCell ref="D47:M47"/>
@@ -4276,11 +4458,6 @@
     <mergeCell ref="D35:M35"/>
     <mergeCell ref="D36:M36"/>
     <mergeCell ref="D37:M37"/>
-    <mergeCell ref="D48:M48"/>
-    <mergeCell ref="D49:M49"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D43:M43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4293,7 +4470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -4304,603 +4481,603 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="29" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4919,8 +5096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AC46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:L22"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4931,33 +5108,33 @@
   <sheetData>
     <row r="1" spans="2:29" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5019,18 +5196,18 @@
       <c r="B7" s="13">
         <v>1</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
       <c r="R7" s="6"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
@@ -5048,18 +5225,18 @@
       <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
       <c r="R8" s="6"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -5077,18 +5254,18 @@
       <c r="B9" s="13">
         <v>3</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
       <c r="R9" s="6"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -5106,18 +5283,18 @@
       <c r="B10" s="13">
         <v>4</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
       <c r="R10" s="6"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
@@ -5190,18 +5367,18 @@
       <c r="B14" s="13">
         <v>1</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
       <c r="R14" s="18"/>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
@@ -5219,18 +5396,18 @@
       <c r="B15" s="13">
         <v>2</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="R15" s="18"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
@@ -5248,18 +5425,18 @@
       <c r="B16" s="13">
         <v>3</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
       <c r="R16" s="6"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
@@ -5277,18 +5454,18 @@
       <c r="B17" s="13">
         <v>4</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="R17" s="6"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -5306,18 +5483,18 @@
       <c r="B18" s="13">
         <v>5</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
       <c r="R18" s="6"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -5335,18 +5512,18 @@
       <c r="B19" s="13">
         <v>6</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.3">
@@ -5366,72 +5543,72 @@
       <c r="B21" s="13">
         <v>7</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B22" s="13">
         <v>9</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
     </row>
     <row r="26" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12"/>
@@ -5452,18 +5629,18 @@
       <c r="B28" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B29" s="13"/>
@@ -5497,18 +5674,18 @@
       <c r="B31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
@@ -5525,18 +5702,18 @@
       <c r="B32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
       <c r="P32" s="13"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
@@ -5553,18 +5730,18 @@
       <c r="B33" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
       <c r="P33" s="13"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="7"/>
@@ -5581,35 +5758,35 @@
       <c r="B34" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B36" s="13"/>
@@ -5643,48 +5820,48 @@
       <c r="B38" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B40" s="13"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
     </row>
     <row r="41" spans="2:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
@@ -5705,85 +5882,72 @@
       <c r="B43" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B45" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B46" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:L45"/>
-    <mergeCell ref="C46:L46"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="C43:L43"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C39:L39"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="C34:L34"/>
-    <mergeCell ref="C35:L35"/>
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="C22:L22"/>
     <mergeCell ref="C23:L23"/>
@@ -5799,6 +5963,19 @@
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:L45"/>
+    <mergeCell ref="C46:L46"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="C43:L43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5811,10 +5988,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L6"/>
+  <dimension ref="B2:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5824,173 +6001,187 @@
     <col min="6" max="7" width="12.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="L3" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="M3" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="L4" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="M4" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="31">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="22">
         <v>1</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="22">
         <v>0</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="22">
         <v>37.539341</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="22">
         <v>127.123299</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="22">
+        <v>10</v>
+      </c>
+      <c r="K5" s="22">
         <v>2</v>
       </c>
-      <c r="K5" s="31">
+      <c r="L5" s="22">
         <v>10</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="M5" s="23" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="31">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="22">
         <v>2</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="22">
         <v>1</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="22">
         <v>0</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="22">
         <v>37.540224000000002</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="22">
         <v>127.12356200000001</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="22">
+        <v>30</v>
+      </c>
+      <c r="K6" s="22">
         <v>1</v>
       </c>
-      <c r="K6" s="31">
+      <c r="L6" s="22">
         <v>30</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="M6" s="23" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L5" r:id="rId1"/>
-    <hyperlink ref="L6" r:id="rId2"/>
+    <hyperlink ref="M5" r:id="rId1"/>
+    <hyperlink ref="M6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/00.기획서/221017_(1차 프로토)선물시스템기획서_V111.xlsx
+++ b/00.기획서/221017_(1차 프로토)선물시스템기획서_V111.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2467,7 +2467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
   <si>
     <t>선물 시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2827,6 +2827,21 @@
   <si>
     <t>cool_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋 파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Ketchup.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Coffee.prefab</t>
   </si>
 </sst>
 </file>
@@ -3026,12 +3041,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -3043,7 +3060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3119,6 +3136,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -3127,9 +3147,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3143,8 +3160,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3808,279 +3831,279 @@
     <row r="1" spans="3:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
     </row>
     <row r="25" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="3"/>
@@ -4184,15 +4207,15 @@
       <c r="D34" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D35" s="24" t="s">
@@ -4223,18 +4246,18 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
     </row>
     <row r="39" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="3"/>
@@ -4252,46 +4275,46 @@
       <c r="M39" s="2"/>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
     </row>
     <row r="45" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C45" s="3"/>
@@ -4442,11 +4465,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D48:M48"/>
-    <mergeCell ref="D49:M49"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D43:M43"/>
     <mergeCell ref="D30:M30"/>
     <mergeCell ref="D34:M34"/>
     <mergeCell ref="D47:M47"/>
@@ -4458,6 +4476,11 @@
     <mergeCell ref="D35:M35"/>
     <mergeCell ref="D36:M36"/>
     <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D48:M48"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D43:M43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5108,33 +5131,33 @@
   <sheetData>
     <row r="1" spans="2:29" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5486,15 +5509,15 @@
       <c r="C18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
       <c r="R18" s="6"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -5515,15 +5538,15 @@
       <c r="C19" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.3">
@@ -5600,15 +5623,15 @@
       <c r="C24" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="26" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12"/>
@@ -5761,15 +5784,15 @@
       <c r="C34" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
@@ -5778,15 +5801,15 @@
       <c r="C35" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B36" s="13"/>
@@ -5853,15 +5876,15 @@
     <row r="40" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B40" s="13"/>
       <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
     </row>
     <row r="41" spans="2:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
@@ -5936,18 +5959,31 @@
       <c r="C46" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:L45"/>
+    <mergeCell ref="C46:L46"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="C43:L43"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="C35:L35"/>
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="C22:L22"/>
     <mergeCell ref="C23:L23"/>
@@ -5963,19 +5999,6 @@
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="C10:L10"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C39:L39"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="C34:L34"/>
-    <mergeCell ref="C35:L35"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:L45"/>
-    <mergeCell ref="C46:L46"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="C43:L43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5988,10 +6011,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M6"/>
+  <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6006,23 +6029,24 @@
     <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>80</v>
       </c>
@@ -6059,8 +6083,11 @@
       <c r="M3" s="21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>66</v>
       </c>
@@ -6097,8 +6124,11 @@
       <c r="M4" s="22" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="22">
         <v>1</v>
       </c>
@@ -6135,8 +6165,11 @@
       <c r="M5" s="23" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="22">
         <v>2</v>
       </c>
@@ -6173,10 +6206,13 @@
       <c r="M6" s="23" t="s">
         <v>87</v>
       </c>
+      <c r="N6" s="22" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
